--- a/PartyMemberManager/ExcelTemplates/省一级干部培训学员信息.xlsx
+++ b/PartyMemberManager/ExcelTemplates/省一级干部培训学员信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD944CC-A895-4034-8767-D099E6698061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386FC6F-546A-4286-A4C8-06D70A523846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="3525" windowWidth="15390" windowHeight="9705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>序号</t>
   </si>
@@ -68,6 +68,13 @@
   </si>
   <si>
     <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学员需求1</t>
+  </si>
+  <si>
+    <t>学员需求2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,7 +82,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -108,6 +115,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="方正小标宋简体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -185,7 +199,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -498,7 +515,7 @@
     <col min="9" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" ht="31.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +543,14 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -545,8 +568,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -564,6 +589,8 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/PartyMemberManager/ExcelTemplates/省一级干部培训学员信息.xlsx
+++ b/PartyMemberManager/ExcelTemplates/省一级干部培训学员信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文件\PartyMemberManager\PartyMemberManager\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1386FC6F-546A-4286-A4C8-06D70A523846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E85418C-149A-4188-B9DD-31EE48BA960F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>序号</t>
   </si>
@@ -71,10 +71,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>学员需求2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>学员需求1</t>
-  </si>
-  <si>
-    <t>学员需求2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他需求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +204,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -222,6 +227,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -499,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -515,7 +523,7 @@
     <col min="9" max="9" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="31.9" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="31.9" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,14 +551,17 @@
       <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>15</v>
+      <c r="L1" s="7" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -570,8 +581,9 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -591,6 +603,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
